--- a/Data/metadata/BLEED_metadata.xlsx
+++ b/Data/metadata/BLEED_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0F1BD4-85AA-3D4B-9663-1A5A4E948068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADFE509-E7D0-C746-B1AE-D940063D6A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="4880" windowWidth="24840" windowHeight="13380" xr2:uid="{E0C5F101-86CA-F14A-87EC-A5BEB6242023}"/>
+    <workbookView xWindow="4300" yWindow="4880" windowWidth="26980" windowHeight="17020" xr2:uid="{E0C5F101-86CA-F14A-87EC-A5BEB6242023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1215,11 +1215,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2B02F5-F55D-814A-B99A-43E342360113}">
   <dimension ref="A1:AR28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1583,10 +1588,10 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
         <v>172</v>
-      </c>
-      <c r="B4" t="s">
-        <v>173</v>
       </c>
       <c r="C4" t="s">
         <v>174</v>
@@ -1696,10 +1701,10 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
         <v>175</v>
-      </c>
-      <c r="B5" t="s">
-        <v>176</v>
       </c>
       <c r="C5" t="s">
         <v>174</v>
@@ -2166,10 +2171,10 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
         <v>184</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
       </c>
       <c r="C9" t="s">
         <v>174</v>
@@ -2285,10 +2290,10 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" t="s">
         <v>186</v>
-      </c>
-      <c r="B10" t="s">
-        <v>187</v>
       </c>
       <c r="C10" t="s">
         <v>174</v>
@@ -3824,10 +3829,10 @@
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" t="s">
         <v>216</v>
-      </c>
-      <c r="B25" t="s">
-        <v>217</v>
       </c>
       <c r="C25" t="s">
         <v>174</v>
@@ -3943,10 +3948,10 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" t="s">
         <v>218</v>
-      </c>
-      <c r="B26" t="s">
-        <v>219</v>
       </c>
       <c r="C26" t="s">
         <v>174</v>
@@ -4062,10 +4067,10 @@
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" t="s">
         <v>220</v>
-      </c>
-      <c r="B27" t="s">
-        <v>221</v>
       </c>
       <c r="C27" t="s">
         <v>174</v>
@@ -4178,10 +4183,10 @@
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" t="s">
         <v>222</v>
-      </c>
-      <c r="B28" t="s">
-        <v>223</v>
       </c>
       <c r="C28" t="s">
         <v>174</v>

--- a/Data/metadata/BLEED_metadata.xlsx
+++ b/Data/metadata/BLEED_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/magnifica/Data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADFE509-E7D0-C746-B1AE-D940063D6A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F468A306-77E3-184E-B0FE-4B28C7F3C46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="4880" windowWidth="26980" windowHeight="17020" xr2:uid="{E0C5F101-86CA-F14A-87EC-A5BEB6242023}"/>
+    <workbookView xWindow="3260" yWindow="2620" windowWidth="26980" windowHeight="17020" xr2:uid="{E0C5F101-86CA-F14A-87EC-A5BEB6242023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="235">
   <si>
     <t>Altnernative codes</t>
   </si>
@@ -826,12 +826,28 @@
   <si>
     <t>N</t>
   </si>
+  <si>
+    <t>MHR.293.BLEED.244</t>
+  </si>
+  <si>
+    <t>MHR.293</t>
+  </si>
+  <si>
+    <t>MHR.293.BLEED.244 
+MHR.294.BLEED.244
+MHR.365.BLEED.244.tif
+MHR.366.BLEED.244.tif
+MHR.6135.BLEED.244.tif
+MHR.6135.BLEED.244.txt
+MHR.6136.BLEED.244.tif
+MHR.6136.BLEED.244.txt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -843,6 +859,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -868,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -877,6 +900,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1213,11 +1243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2B02F5-F55D-814A-B99A-43E342360113}">
-  <dimension ref="A1:AR28"/>
+  <dimension ref="A1:AR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1814,10 +1844,10 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
         <v>179</v>
@@ -1826,7 +1856,7 @@
         <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>230</v>
@@ -1834,121 +1864,126 @@
       <c r="G6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="5"/>
+      <c r="M6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W6" s="2" t="s">
+      <c r="V6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="X6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Y6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AA6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AB6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AC6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AD6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AE6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="6">
         <v>24</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AH6" s="6">
         <v>88</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="6">
         <v>1</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AL6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM6" s="6">
         <v>-45.84</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AN6" s="6">
         <v>170.89</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="6">
         <v>2010</v>
       </c>
-      <c r="AQ6" s="2" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AR6" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>65</v>
@@ -2052,10 +2087,10 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>174</v>
@@ -2064,10 +2099,10 @@
         <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>65</v>
@@ -2171,10 +2206,10 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
         <v>174</v>
@@ -2183,10 +2218,10 @@
         <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>65</v>
@@ -2290,10 +2325,10 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
         <v>174</v>
@@ -2302,10 +2337,10 @@
         <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>65</v>
@@ -2409,52 +2444,76 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
         <v>174</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="K11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="M11" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>57</v>
@@ -2463,37 +2522,37 @@
         <v>58</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="AE11" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AG11" s="3">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AH11" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AK11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="AM11" s="3">
-        <v>-39.639000000000003</v>
+        <v>-45.84</v>
       </c>
       <c r="AN11" s="3">
-        <v>177.00899999999999</v>
+        <v>170.89</v>
       </c>
       <c r="AP11" s="3">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="AQ11" s="2" t="s">
         <v>62</v>
@@ -2504,19 +2563,19 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
         <v>174</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>77</v>
@@ -2599,22 +2658,22 @@
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
         <v>174</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>78</v>
@@ -2625,6 +2684,9 @@
       <c r="M13" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="N13" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="S13" s="2" t="s">
         <v>81</v>
       </c>
@@ -2635,7 +2697,7 @@
         <v>83</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>85</v>
@@ -2691,19 +2753,19 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
         <v>174</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>89</v>
@@ -2783,70 +2845,46 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
         <v>174</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="M15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="X15" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="Y15" s="2" t="s">
         <v>56</v>
@@ -2858,40 +2896,34 @@
         <v>58</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AE15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF15" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="AG15" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH15" s="3">
-        <v>77</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="AM15" s="3">
-        <v>-47.136000000000003</v>
+        <v>-39.639000000000003</v>
       </c>
       <c r="AN15" s="3">
-        <v>168.18899999999999</v>
+        <v>177.00899999999999</v>
       </c>
       <c r="AP15" s="3">
         <v>2018</v>
@@ -2905,19 +2937,19 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
         <v>174</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>91</v>
@@ -3027,49 +3059,70 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>174</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="K17" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="M17" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="Y17" s="2" t="s">
         <v>56</v>
@@ -3081,34 +3134,40 @@
         <v>58</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="AE17" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="AF17" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="AG17" s="3">
+        <v>8</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>77</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK17" s="3">
         <v>4</v>
       </c>
-      <c r="AH17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>3</v>
-      </c>
       <c r="AL17" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="AM17" s="3">
-        <v>-39.639000000000003</v>
+        <v>-47.136000000000003</v>
       </c>
       <c r="AN17" s="3">
-        <v>177.00899999999999</v>
+        <v>168.18899999999999</v>
       </c>
       <c r="AP17" s="3">
         <v>2018</v>
@@ -3122,19 +3181,19 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18" t="s">
         <v>174</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>110</v>
@@ -3217,25 +3276,25 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
         <v>174</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>68</v>
@@ -3246,26 +3305,20 @@
       <c r="N19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="S19" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>56</v>
@@ -3277,40 +3330,34 @@
         <v>58</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AE19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF19" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="AG19" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AH19" s="3">
-        <v>22</v>
-      </c>
-      <c r="AJ19" s="2" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="AK19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AM19" s="3">
-        <v>-46.661999999999999</v>
+        <v>-39.639000000000003</v>
       </c>
       <c r="AN19" s="3">
-        <v>168.386</v>
+        <v>177.00899999999999</v>
       </c>
       <c r="AP19" s="3">
         <v>2018</v>
@@ -3324,19 +3371,19 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20" t="s">
         <v>174</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>112</v>
@@ -3431,25 +3478,25 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
         <v>174</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>68</v>
@@ -3461,7 +3508,10 @@
         <v>80</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>99</v>
@@ -3473,19 +3523,25 @@
         <v>83</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>103</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AD21" s="2" t="s">
         <v>106</v>
@@ -3497,28 +3553,25 @@
         <v>107</v>
       </c>
       <c r="AG21" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH21" s="3">
-        <v>80</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="AJ21" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AK21" s="3">
         <v>4</v>
       </c>
       <c r="AL21" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AM21" s="3">
-        <v>-47.137</v>
+        <v>-46.661999999999999</v>
       </c>
       <c r="AN21" s="3">
-        <v>168.126</v>
+        <v>168.386</v>
       </c>
       <c r="AP21" s="3">
         <v>2018</v>
@@ -3532,19 +3585,19 @@
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
         <v>174</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>120</v>
@@ -3633,94 +3686,97 @@
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="M23" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="N23" s="2" t="s">
         <v>80</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>83</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>136</v>
+        <v>61</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="AG23" s="3">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AH23" s="3">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="AI23" s="3">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AK23" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL23" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>-47.137</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>168.126</v>
       </c>
       <c r="AP23" s="3">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="AQ23" s="2" t="s">
         <v>62</v>
@@ -3731,10 +3787,10 @@
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
         <v>174</v>
@@ -3743,10 +3799,10 @@
         <v>127</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>128</v>
@@ -3829,70 +3885,52 @@
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C25" t="s">
         <v>174</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="N25" s="2" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="W25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="Y25" s="2" t="s">
         <v>56</v>
@@ -3904,40 +3942,37 @@
         <v>58</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF25" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="AG25" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AH25" s="3">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>11</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="AK25" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>-36.46</v>
-      </c>
-      <c r="AN25" s="3">
-        <v>174.9</v>
+        <v>138</v>
       </c>
       <c r="AP25" s="3">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="AQ25" s="2" t="s">
         <v>62</v>
@@ -3948,10 +3983,10 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C26" t="s">
         <v>174</v>
@@ -3960,10 +3995,10 @@
         <v>139</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>140</v>
@@ -4067,70 +4102,70 @@
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
         <v>174</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="Y27" s="2" t="s">
         <v>56</v>
@@ -4142,37 +4177,40 @@
         <v>58</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="AE27" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="AF27" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="AG27" s="3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH27" s="3">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="AK27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL27" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="AM27" s="3">
-        <v>-46.29</v>
+        <v>-36.46</v>
       </c>
       <c r="AN27" s="3">
-        <v>170.22</v>
+        <v>174.9</v>
       </c>
       <c r="AP27" s="3">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="AQ27" s="2" t="s">
         <v>62</v>
@@ -4183,10 +4221,10 @@
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
         <v>174</v>
@@ -4195,10 +4233,10 @@
         <v>155</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>156</v>
@@ -4294,6 +4332,122 @@
         <v>62</v>
       </c>
       <c r="AR28" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>24</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>68</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>-46.29</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>170.22</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>2010</v>
+      </c>
+      <c r="AQ29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR29" s="2" t="s">
         <v>63</v>
       </c>
     </row>
